--- a/medicine/Enfance/Chihiro_Iwasaki/Chihiro_Iwasaki.xlsx
+++ b/medicine/Enfance/Chihiro_Iwasaki/Chihiro_Iwasaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chihiro Iwasaki (いわさき ちひろ, Iwasaki Chihiro?) née Chihiro Matsumoto (松本知弘, Matsumoto Chihiro?, 15 décembre 1918 - 8 août 1974) est une artiste et illustratrice des albums illustrés japonaise connue pour aquarelles représentant des fleurs et des enfants sur le thème « la paix et de bonheur des enfants ».
 En 1933, encore enfant, elle étudie le dessin et la peinture à l'huile avec le peintre Okada Saburōsuke, qui est son précepteur.
@@ -514,9 +526,11 @@
           <t>Style</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La majorité de ses illustrations étaient des aquarelles, mais certains de ses travaux sont réalisés en calligraphie japonaise, ainsi qu'à la peinture à l'huile. Son style a été largement influencée par deux de ses écrivains préférés, Kenji Miyazawa et Hans Christian Andersen. Elle a écrit qu'elle se sentait en communion avec Marie Laurencin quand elle a vu une de ses images, et a dit qu'elle a également été impressionnée par Käthe Kollwitz[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité de ses illustrations étaient des aquarelles, mais certains de ses travaux sont réalisés en calligraphie japonaise, ainsi qu'à la peinture à l'huile. Son style a été largement influencée par deux de ses écrivains préférés, Kenji Miyazawa et Hans Christian Andersen. Elle a écrit qu'elle se sentait en communion avec Marie Laurencin quand elle a vu une de ses images, et a dit qu'elle a également été impressionnée par Käthe Kollwitz.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Les musées de l'œuvre de Chihiro Iwasaki</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux musées commémoratifs sont dédiés à Chihiro Iwasaki : Le Musée Chihiro Art de Tokyo (ちひろ美術館·東京?), situé à Nerima, Tokyo, depuis 1977 et Art Chihiro Museum Azumino (安曇野ちひろ美術館?), situé à Azumino, Nagano ; depuis 1997, ils  sont tous les deux administrés par la Chihiro Iwasaki Memorial Foundation (いわさきちひろ記念事業団?), fondée en 1976. Les deux musées collectent et présentent les illustrations originales de livres pour enfants de Chihiro et d'autres artistes.
 </t>
